--- a/Simulation/Nordnet/simulated_prices/10 year simulation GBM/Yearly Data/SYBA_sum_stat.xlsx
+++ b/Simulation/Nordnet/simulated_prices/10 year simulation GBM/Yearly Data/SYBA_sum_stat.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,262 +482,291 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-5.778063751298755e-05</v>
+        <v>-5.188801665958363e-05</v>
       </c>
       <c r="B2" t="n">
-        <v>-2.548429144233477e-05</v>
+        <v>7.232476324425807e-05</v>
       </c>
       <c r="C2" t="n">
-        <v>0.003125764341281696</v>
+        <v>0.003094489225181563</v>
       </c>
       <c r="D2" t="n">
-        <v>9.770402717228193e-06</v>
+        <v>9.575863564764789e-06</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.009589583904333066</v>
+        <v>-0.01097367107306457</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.002102570779447172</v>
+        <v>-0.002100679207081624</v>
       </c>
       <c r="G2" t="n">
-        <v>-2.548429144233477e-05</v>
+        <v>7.232476324425807e-05</v>
       </c>
       <c r="H2" t="n">
-        <v>0.002013449052952421</v>
+        <v>0.002034862747892663</v>
       </c>
       <c r="I2" t="n">
-        <v>0.01167135426291033</v>
+        <v>0.008972593857389466</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-2.659421195104739e-05</v>
+        <v>-5.778063751298755e-05</v>
       </c>
       <c r="B3" t="n">
-        <v>-1.176286642734503e-05</v>
+        <v>-2.548429144233477e-05</v>
       </c>
       <c r="C3" t="n">
-        <v>0.003127886007129624</v>
+        <v>0.003125764341281696</v>
       </c>
       <c r="D3" t="n">
-        <v>9.783670873597305e-06</v>
+        <v>9.770402717228192e-06</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.01078143434737633</v>
+        <v>-0.009589583904333066</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.002117347511315537</v>
+        <v>-0.002102570779447172</v>
       </c>
       <c r="G3" t="n">
-        <v>-1.176286642734503e-05</v>
+        <v>-2.548429144233477e-05</v>
       </c>
       <c r="H3" t="n">
-        <v>0.002023845429742821</v>
+        <v>0.002013449052952421</v>
       </c>
       <c r="I3" t="n">
-        <v>0.01157736429331235</v>
+        <v>0.01167135426291033</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-0.0001313531186767296</v>
+        <v>-2.659421195104739e-05</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.0001503509029828209</v>
+        <v>-1.176286642734503e-05</v>
       </c>
       <c r="C4" t="n">
-        <v>0.003168653247739311</v>
+        <v>0.003127886007129625</v>
       </c>
       <c r="D4" t="n">
-        <v>1.004036340440888e-05</v>
+        <v>9.783670873597307e-06</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.008935439244777799</v>
+        <v>-0.01078143434737633</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.002297930753893229</v>
+        <v>-0.002117347511315537</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.0001503509029828209</v>
+        <v>-1.176286642734503e-05</v>
       </c>
       <c r="H4" t="n">
-        <v>0.001990705117900393</v>
+        <v>0.002023845429742821</v>
       </c>
       <c r="I4" t="n">
-        <v>0.009361373918875149</v>
+        <v>0.01157736429331235</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-0.0001474630700396841</v>
+        <v>-0.0001313531186767296</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.0001834945246393382</v>
+        <v>-0.0001503509029828209</v>
       </c>
       <c r="C5" t="n">
-        <v>0.003140101678313243</v>
+        <v>0.003168653247739311</v>
       </c>
       <c r="D5" t="n">
-        <v>9.860238550145644e-06</v>
+        <v>1.004036340440888e-05</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.009320433705113707</v>
+        <v>-0.008935439244777799</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.002139480416286255</v>
+        <v>-0.002297930753893229</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.0001834945246393382</v>
+        <v>-0.0001503509029828209</v>
       </c>
       <c r="H5" t="n">
-        <v>0.002105121976470225</v>
+        <v>0.001990705117900393</v>
       </c>
       <c r="I5" t="n">
-        <v>0.008867593319404232</v>
+        <v>0.009361373918875149</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3.032077924203687e-06</v>
+        <v>-0.0001474630700396841</v>
       </c>
       <c r="B6" t="n">
-        <v>-7.658892595863165e-05</v>
+        <v>-0.0001834945246393382</v>
       </c>
       <c r="C6" t="n">
-        <v>0.003162721876092878</v>
+        <v>0.003140101678313243</v>
       </c>
       <c r="D6" t="n">
-        <v>1.000280966551645e-05</v>
+        <v>9.860238550145643e-06</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.01026425132620234</v>
+        <v>-0.009320433705113707</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.002091805924626127</v>
+        <v>-0.002139480416286255</v>
       </c>
       <c r="G6" t="n">
-        <v>-7.658892595863165e-05</v>
+        <v>-0.0001834945246393382</v>
       </c>
       <c r="H6" t="n">
-        <v>0.002161456559436392</v>
+        <v>0.002105121976470225</v>
       </c>
       <c r="I6" t="n">
-        <v>0.01073629176087021</v>
+        <v>0.008867593319404232</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1.311985560590789e-05</v>
+        <v>3.032077924203687e-06</v>
       </c>
       <c r="B7" t="n">
-        <v>-4.373356542308748e-05</v>
+        <v>-7.658892595863165e-05</v>
       </c>
       <c r="C7" t="n">
-        <v>0.003154090738925718</v>
+        <v>0.003162721876092878</v>
       </c>
       <c r="D7" t="n">
-        <v>9.94828838937698e-06</v>
+        <v>1.000280966551645e-05</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.009159651462520957</v>
+        <v>-0.01026425132620234</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.002007006648680393</v>
+        <v>-0.002091805924626127</v>
       </c>
       <c r="G7" t="n">
-        <v>-4.373356542308748e-05</v>
+        <v>-7.658892595863165e-05</v>
       </c>
       <c r="H7" t="n">
-        <v>0.002185348727113345</v>
+        <v>0.002161456559436392</v>
       </c>
       <c r="I7" t="n">
-        <v>0.009959222780798527</v>
+        <v>0.01073629176087021</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>5.48742366869932e-05</v>
+        <v>1.311985560590789e-05</v>
       </c>
       <c r="B8" t="n">
-        <v>9.421072499704586e-05</v>
+        <v>-4.373356542308748e-05</v>
       </c>
       <c r="C8" t="n">
-        <v>0.003026839159254047</v>
+        <v>0.003154090738925718</v>
       </c>
       <c r="D8" t="n">
-        <v>9.161755295993745e-06</v>
+        <v>9.94828838937698e-06</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.009881863814397152</v>
+        <v>-0.009159651462520957</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.002058134291894026</v>
+        <v>-0.002007006648680393</v>
       </c>
       <c r="G8" t="n">
-        <v>9.421072499704586e-05</v>
+        <v>-4.373356542308748e-05</v>
       </c>
       <c r="H8" t="n">
-        <v>0.00200382075105493</v>
+        <v>0.002185348727113345</v>
       </c>
       <c r="I8" t="n">
-        <v>0.01142679574972272</v>
+        <v>0.009959222780798527</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-2.626265999040522e-05</v>
+        <v>5.48742366869932e-05</v>
       </c>
       <c r="B9" t="n">
-        <v>6.368170203774337e-05</v>
+        <v>9.421072499704586e-05</v>
       </c>
       <c r="C9" t="n">
-        <v>0.00293789964968397</v>
+        <v>0.003026839159254047</v>
       </c>
       <c r="D9" t="n">
-        <v>8.631254351613191e-06</v>
+        <v>9.161755295993747e-06</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.0117878460538211</v>
+        <v>-0.009881863814397152</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.002042450240789778</v>
+        <v>-0.002058134291894026</v>
       </c>
       <c r="G9" t="n">
-        <v>6.368170203774337e-05</v>
+        <v>9.421072499704586e-05</v>
       </c>
       <c r="H9" t="n">
-        <v>0.00198718668262754</v>
+        <v>0.00200382075105493</v>
       </c>
       <c r="I9" t="n">
-        <v>0.008951220469790133</v>
+        <v>0.01142679574972272</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
+        <v>-2.626265999040522e-05</v>
+      </c>
+      <c r="B10" t="n">
+        <v>6.368170203774337e-05</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.00293789964968397</v>
+      </c>
+      <c r="D10" t="n">
+        <v>8.631254351613191e-06</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-0.0117878460538211</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-0.002042450240789778</v>
+      </c>
+      <c r="G10" t="n">
+        <v>6.368170203774337e-05</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.00198718668262754</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.008951220469790133</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
         <v>8.828347821557125e-05</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B11" t="n">
         <v>6.699370432894369e-05</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C11" t="n">
         <v>0.003206089327856689</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D11" t="n">
         <v>1.027900877819655e-05</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E11" t="n">
         <v>-0.01036372104659067</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F11" t="n">
         <v>-0.00210003330330688</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G11" t="n">
         <v>6.699370432894369e-05</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H11" t="n">
         <v>0.002176766970288013</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I11" t="n">
         <v>0.009626929892694092</v>
       </c>
     </row>
